--- a/Ch 10 - The OOA&D Lifecycle/Ch 10 - The OOA&D Lifecycle - Planning.xlsx
+++ b/Ch 10 - The OOA&D Lifecycle/Ch 10 - The OOA&D Lifecycle - Planning.xlsx
@@ -3022,6 +3022,1775 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>367393</xdr:colOff>
+      <xdr:row>101</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="52" name="Group 51"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="0" y="9906000"/>
+          <a:ext cx="6490607" cy="9334500"/>
+          <a:chOff x="68036" y="231322"/>
+          <a:chExt cx="6490607" cy="9334500"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="53" name="Rectangle 52"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="68036" y="231322"/>
+            <a:ext cx="6490607" cy="9334500"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:endParaRPr lang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:grpSp>
+        <xdr:nvGrpSpPr>
+          <xdr:cNvPr id="54" name="Group 48"/>
+          <xdr:cNvGrpSpPr/>
+        </xdr:nvGrpSpPr>
+        <xdr:grpSpPr>
+          <a:xfrm>
+            <a:off x="257174" y="438150"/>
+            <a:ext cx="6008915" cy="8953500"/>
+            <a:chOff x="257174" y="438150"/>
+            <a:chExt cx="6008915" cy="8953500"/>
+          </a:xfrm>
+        </xdr:grpSpPr>
+        <xdr:grpSp>
+          <xdr:nvGrpSpPr>
+            <xdr:cNvPr id="64" name="Group 6"/>
+            <xdr:cNvGrpSpPr/>
+          </xdr:nvGrpSpPr>
+          <xdr:grpSpPr>
+            <a:xfrm>
+              <a:off x="1224644" y="438150"/>
+              <a:ext cx="5025117" cy="5346246"/>
+              <a:chOff x="924952" y="400050"/>
+              <a:chExt cx="5005071" cy="5346246"/>
+            </a:xfrm>
+          </xdr:grpSpPr>
+          <xdr:sp macro="" textlink="">
+            <xdr:nvSpPr>
+              <xdr:cNvPr id="121" name="Rectangle 1"/>
+              <xdr:cNvSpPr/>
+            </xdr:nvSpPr>
+            <xdr:spPr>
+              <a:xfrm>
+                <a:off x="3891672" y="400050"/>
+                <a:ext cx="2038351" cy="2257425"/>
+              </a:xfrm>
+              <a:prstGeom prst="rect">
+                <a:avLst/>
+              </a:prstGeom>
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="20000"/>
+                  <a:lumOff val="80000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="25400">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:ln>
+            </xdr:spPr>
+            <xdr:style>
+              <a:lnRef idx="2">
+                <a:schemeClr val="accent1">
+                  <a:shade val="50000"/>
+                </a:schemeClr>
+              </a:lnRef>
+              <a:fillRef idx="1">
+                <a:schemeClr val="accent1"/>
+              </a:fillRef>
+              <a:effectRef idx="0">
+                <a:schemeClr val="accent1"/>
+              </a:effectRef>
+              <a:fontRef idx="minor">
+                <a:schemeClr val="lt1"/>
+              </a:fontRef>
+            </xdr:style>
+            <xdr:txBody>
+              <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr algn="ctr"/>
+                <a:endParaRPr lang="en-US" sz="1100"/>
+              </a:p>
+            </xdr:txBody>
+          </xdr:sp>
+          <xdr:sp macro="" textlink="">
+            <xdr:nvSpPr>
+              <xdr:cNvPr id="88" name="Rectangle 1"/>
+              <xdr:cNvSpPr/>
+            </xdr:nvSpPr>
+            <xdr:spPr>
+              <a:xfrm>
+                <a:off x="1181100" y="400050"/>
+                <a:ext cx="2038351" cy="2257425"/>
+              </a:xfrm>
+              <a:prstGeom prst="rect">
+                <a:avLst/>
+              </a:prstGeom>
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="20000"/>
+                  <a:lumOff val="80000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="25400">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:ln>
+            </xdr:spPr>
+            <xdr:style>
+              <a:lnRef idx="2">
+                <a:schemeClr val="accent1">
+                  <a:shade val="50000"/>
+                </a:schemeClr>
+              </a:lnRef>
+              <a:fillRef idx="1">
+                <a:schemeClr val="accent1"/>
+              </a:fillRef>
+              <a:effectRef idx="0">
+                <a:schemeClr val="accent1"/>
+              </a:effectRef>
+              <a:fontRef idx="minor">
+                <a:schemeClr val="lt1"/>
+              </a:fontRef>
+            </xdr:style>
+            <xdr:txBody>
+              <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr algn="ctr"/>
+                <a:endParaRPr lang="en-US" sz="1100"/>
+              </a:p>
+            </xdr:txBody>
+          </xdr:sp>
+          <xdr:grpSp>
+            <xdr:nvGrpSpPr>
+              <xdr:cNvPr id="89" name="Group 5"/>
+              <xdr:cNvGrpSpPr/>
+            </xdr:nvGrpSpPr>
+            <xdr:grpSpPr>
+              <a:xfrm>
+                <a:off x="1219200" y="438150"/>
+                <a:ext cx="4672722" cy="2143125"/>
+                <a:chOff x="1219200" y="438150"/>
+                <a:chExt cx="4672722" cy="2143125"/>
+              </a:xfrm>
+            </xdr:grpSpPr>
+            <xdr:sp macro="" textlink="">
+              <xdr:nvSpPr>
+                <xdr:cNvPr id="90" name="TextBox 2"/>
+                <xdr:cNvSpPr txBox="1"/>
+              </xdr:nvSpPr>
+              <xdr:spPr>
+                <a:xfrm>
+                  <a:off x="1219200" y="438150"/>
+                  <a:ext cx="1962150" cy="409575"/>
+                </a:xfrm>
+                <a:prstGeom prst="rect">
+                  <a:avLst/>
+                </a:prstGeom>
+                <a:noFill/>
+                <a:ln w="9525" cmpd="sng">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1">
+                      <a:shade val="50000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                </a:ln>
+              </xdr:spPr>
+              <xdr:style>
+                <a:lnRef idx="0">
+                  <a:scrgbClr r="0" g="0" b="0"/>
+                </a:lnRef>
+                <a:fillRef idx="0">
+                  <a:scrgbClr r="0" g="0" b="0"/>
+                </a:fillRef>
+                <a:effectRef idx="0">
+                  <a:scrgbClr r="0" g="0" b="0"/>
+                </a:effectRef>
+                <a:fontRef idx="minor">
+                  <a:schemeClr val="dk1"/>
+                </a:fontRef>
+              </xdr:style>
+              <xdr:txBody>
+                <a:bodyPr vertOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr algn="ctr"/>
+                  <a:r>
+                    <a:rPr lang="en-US" sz="1100" b="1"/>
+                    <a:t>Subway</a:t>
+                  </a:r>
+                  <a:r>
+                    <a:rPr lang="en-US" sz="1100" b="1" baseline="0"/>
+                    <a:t> Loader</a:t>
+                  </a:r>
+                  <a:endParaRPr lang="en-US" sz="1100" b="1"/>
+                </a:p>
+              </xdr:txBody>
+            </xdr:sp>
+            <xdr:sp macro="" textlink="">
+              <xdr:nvSpPr>
+                <xdr:cNvPr id="91" name="TextBox 3"/>
+                <xdr:cNvSpPr txBox="1"/>
+              </xdr:nvSpPr>
+              <xdr:spPr>
+                <a:xfrm>
+                  <a:off x="1219200" y="857250"/>
+                  <a:ext cx="1962150" cy="409575"/>
+                </a:xfrm>
+                <a:prstGeom prst="rect">
+                  <a:avLst/>
+                </a:prstGeom>
+                <a:noFill/>
+                <a:ln w="9525" cmpd="sng">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1">
+                      <a:shade val="50000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                </a:ln>
+              </xdr:spPr>
+              <xdr:style>
+                <a:lnRef idx="0">
+                  <a:scrgbClr r="0" g="0" b="0"/>
+                </a:lnRef>
+                <a:fillRef idx="0">
+                  <a:scrgbClr r="0" g="0" b="0"/>
+                </a:fillRef>
+                <a:effectRef idx="0">
+                  <a:scrgbClr r="0" g="0" b="0"/>
+                </a:effectRef>
+                <a:fontRef idx="minor">
+                  <a:schemeClr val="dk1"/>
+                </a:fontRef>
+              </xdr:style>
+              <xdr:txBody>
+                <a:bodyPr vertOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:endParaRPr lang="en-US" sz="1100"/>
+                </a:p>
+              </xdr:txBody>
+            </xdr:sp>
+            <xdr:sp macro="" textlink="">
+              <xdr:nvSpPr>
+                <xdr:cNvPr id="92" name="TextBox 4"/>
+                <xdr:cNvSpPr txBox="1"/>
+              </xdr:nvSpPr>
+              <xdr:spPr>
+                <a:xfrm>
+                  <a:off x="1219200" y="1276350"/>
+                  <a:ext cx="1962150" cy="1304925"/>
+                </a:xfrm>
+                <a:prstGeom prst="rect">
+                  <a:avLst/>
+                </a:prstGeom>
+                <a:noFill/>
+                <a:ln w="9525" cmpd="sng">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1">
+                      <a:shade val="50000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                </a:ln>
+              </xdr:spPr>
+              <xdr:style>
+                <a:lnRef idx="0">
+                  <a:scrgbClr r="0" g="0" b="0"/>
+                </a:lnRef>
+                <a:fillRef idx="0">
+                  <a:scrgbClr r="0" g="0" b="0"/>
+                </a:fillRef>
+                <a:effectRef idx="0">
+                  <a:scrgbClr r="0" g="0" b="0"/>
+                </a:effectRef>
+                <a:fontRef idx="minor">
+                  <a:schemeClr val="dk1"/>
+                </a:fontRef>
+              </xdr:style>
+              <xdr:txBody>
+                <a:bodyPr vertOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:r>
+                    <a:rPr lang="en-US" sz="1100"/>
+                    <a:t>loadFromFile(File):</a:t>
+                  </a:r>
+                  <a:r>
+                    <a:rPr lang="en-US" sz="1100" baseline="0"/>
+                    <a:t> Subway</a:t>
+                  </a:r>
+                  <a:endParaRPr lang="en-US" sz="1100"/>
+                </a:p>
+              </xdr:txBody>
+            </xdr:sp>
+            <xdr:sp macro="" textlink="">
+              <xdr:nvSpPr>
+                <xdr:cNvPr id="122" name="TextBox 2"/>
+                <xdr:cNvSpPr txBox="1"/>
+              </xdr:nvSpPr>
+              <xdr:spPr>
+                <a:xfrm>
+                  <a:off x="3929771" y="438150"/>
+                  <a:ext cx="1962150" cy="409575"/>
+                </a:xfrm>
+                <a:prstGeom prst="rect">
+                  <a:avLst/>
+                </a:prstGeom>
+                <a:noFill/>
+                <a:ln w="9525" cmpd="sng">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1">
+                      <a:shade val="50000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                </a:ln>
+              </xdr:spPr>
+              <xdr:style>
+                <a:lnRef idx="0">
+                  <a:scrgbClr r="0" g="0" b="0"/>
+                </a:lnRef>
+                <a:fillRef idx="0">
+                  <a:scrgbClr r="0" g="0" b="0"/>
+                </a:fillRef>
+                <a:effectRef idx="0">
+                  <a:scrgbClr r="0" g="0" b="0"/>
+                </a:effectRef>
+                <a:fontRef idx="minor">
+                  <a:schemeClr val="dk1"/>
+                </a:fontRef>
+              </xdr:style>
+              <xdr:txBody>
+                <a:bodyPr vertOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr algn="ctr"/>
+                  <a:r>
+                    <a:rPr lang="en-US" sz="1100" b="1"/>
+                    <a:t>Subway</a:t>
+                  </a:r>
+                  <a:r>
+                    <a:rPr lang="en-US" sz="1100" b="1" baseline="0"/>
+                    <a:t> Printer</a:t>
+                  </a:r>
+                  <a:endParaRPr lang="en-US" sz="1100" b="1"/>
+                </a:p>
+              </xdr:txBody>
+            </xdr:sp>
+            <xdr:sp macro="" textlink="">
+              <xdr:nvSpPr>
+                <xdr:cNvPr id="123" name="TextBox 3"/>
+                <xdr:cNvSpPr txBox="1"/>
+              </xdr:nvSpPr>
+              <xdr:spPr>
+                <a:xfrm>
+                  <a:off x="3929772" y="857250"/>
+                  <a:ext cx="1962150" cy="409575"/>
+                </a:xfrm>
+                <a:prstGeom prst="rect">
+                  <a:avLst/>
+                </a:prstGeom>
+                <a:noFill/>
+                <a:ln w="9525" cmpd="sng">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1">
+                      <a:shade val="50000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                </a:ln>
+              </xdr:spPr>
+              <xdr:style>
+                <a:lnRef idx="0">
+                  <a:scrgbClr r="0" g="0" b="0"/>
+                </a:lnRef>
+                <a:fillRef idx="0">
+                  <a:scrgbClr r="0" g="0" b="0"/>
+                </a:fillRef>
+                <a:effectRef idx="0">
+                  <a:scrgbClr r="0" g="0" b="0"/>
+                </a:effectRef>
+                <a:fontRef idx="minor">
+                  <a:schemeClr val="dk1"/>
+                </a:fontRef>
+              </xdr:style>
+              <xdr:txBody>
+                <a:bodyPr vertOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:endParaRPr lang="en-US" sz="1100"/>
+                </a:p>
+              </xdr:txBody>
+            </xdr:sp>
+            <xdr:sp macro="" textlink="">
+              <xdr:nvSpPr>
+                <xdr:cNvPr id="124" name="TextBox 4"/>
+                <xdr:cNvSpPr txBox="1"/>
+              </xdr:nvSpPr>
+              <xdr:spPr>
+                <a:xfrm>
+                  <a:off x="3929772" y="1276350"/>
+                  <a:ext cx="1962150" cy="1304925"/>
+                </a:xfrm>
+                <a:prstGeom prst="rect">
+                  <a:avLst/>
+                </a:prstGeom>
+                <a:noFill/>
+                <a:ln w="9525" cmpd="sng">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1">
+                      <a:shade val="50000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                </a:ln>
+              </xdr:spPr>
+              <xdr:style>
+                <a:lnRef idx="0">
+                  <a:scrgbClr r="0" g="0" b="0"/>
+                </a:lnRef>
+                <a:fillRef idx="0">
+                  <a:scrgbClr r="0" g="0" b="0"/>
+                </a:fillRef>
+                <a:effectRef idx="0">
+                  <a:scrgbClr r="0" g="0" b="0"/>
+                </a:effectRef>
+                <a:fontRef idx="minor">
+                  <a:schemeClr val="dk1"/>
+                </a:fontRef>
+              </xdr:style>
+              <xdr:txBody>
+                <a:bodyPr vertOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:r>
+                    <a:rPr lang="en-US" sz="1100"/>
+                    <a:t>printDirections(Connection[*])</a:t>
+                  </a:r>
+                </a:p>
+              </xdr:txBody>
+            </xdr:sp>
+          </xdr:grpSp>
+          <xdr:sp macro="" textlink="">
+            <xdr:nvSpPr>
+              <xdr:cNvPr id="134" name="Rectangle 1"/>
+              <xdr:cNvSpPr/>
+            </xdr:nvSpPr>
+            <xdr:spPr>
+              <a:xfrm>
+                <a:off x="924952" y="3488871"/>
+                <a:ext cx="3090052" cy="2257425"/>
+              </a:xfrm>
+              <a:prstGeom prst="rect">
+                <a:avLst/>
+              </a:prstGeom>
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="20000"/>
+                  <a:lumOff val="80000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="25400">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:ln>
+            </xdr:spPr>
+            <xdr:style>
+              <a:lnRef idx="2">
+                <a:schemeClr val="accent1">
+                  <a:shade val="50000"/>
+                </a:schemeClr>
+              </a:lnRef>
+              <a:fillRef idx="1">
+                <a:schemeClr val="accent1"/>
+              </a:fillRef>
+              <a:effectRef idx="0">
+                <a:schemeClr val="accent1"/>
+              </a:effectRef>
+              <a:fontRef idx="minor">
+                <a:schemeClr val="lt1"/>
+              </a:fontRef>
+            </xdr:style>
+            <xdr:txBody>
+              <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr algn="ctr"/>
+                <a:endParaRPr lang="en-US" sz="1100"/>
+              </a:p>
+            </xdr:txBody>
+          </xdr:sp>
+        </xdr:grpSp>
+        <xdr:grpSp>
+          <xdr:nvGrpSpPr>
+            <xdr:cNvPr id="84" name="Group 9"/>
+            <xdr:cNvGrpSpPr/>
+          </xdr:nvGrpSpPr>
+          <xdr:grpSpPr>
+            <a:xfrm>
+              <a:off x="1309236" y="3571875"/>
+              <a:ext cx="2881764" cy="2143125"/>
+              <a:chOff x="1219200" y="438150"/>
+              <a:chExt cx="2361533" cy="2143125"/>
+            </a:xfrm>
+          </xdr:grpSpPr>
+          <xdr:sp macro="" textlink="">
+            <xdr:nvSpPr>
+              <xdr:cNvPr id="85" name="TextBox 84"/>
+              <xdr:cNvSpPr txBox="1"/>
+            </xdr:nvSpPr>
+            <xdr:spPr>
+              <a:xfrm>
+                <a:off x="1219200" y="438150"/>
+                <a:ext cx="2361532" cy="409575"/>
+              </a:xfrm>
+              <a:prstGeom prst="rect">
+                <a:avLst/>
+              </a:prstGeom>
+              <a:noFill/>
+              <a:ln w="9525" cmpd="sng">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:shade val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+            </xdr:spPr>
+            <xdr:style>
+              <a:lnRef idx="0">
+                <a:scrgbClr r="0" g="0" b="0"/>
+              </a:lnRef>
+              <a:fillRef idx="0">
+                <a:scrgbClr r="0" g="0" b="0"/>
+              </a:fillRef>
+              <a:effectRef idx="0">
+                <a:scrgbClr r="0" g="0" b="0"/>
+              </a:effectRef>
+              <a:fontRef idx="minor">
+                <a:schemeClr val="dk1"/>
+              </a:fontRef>
+            </xdr:style>
+            <xdr:txBody>
+              <a:bodyPr vertOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr algn="ctr"/>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1100" b="1"/>
+                  <a:t>Subway</a:t>
+                </a:r>
+              </a:p>
+            </xdr:txBody>
+          </xdr:sp>
+          <xdr:sp macro="" textlink="">
+            <xdr:nvSpPr>
+              <xdr:cNvPr id="86" name="TextBox 85"/>
+              <xdr:cNvSpPr txBox="1"/>
+            </xdr:nvSpPr>
+            <xdr:spPr>
+              <a:xfrm>
+                <a:off x="1219200" y="857250"/>
+                <a:ext cx="2361532" cy="409575"/>
+              </a:xfrm>
+              <a:prstGeom prst="rect">
+                <a:avLst/>
+              </a:prstGeom>
+              <a:noFill/>
+              <a:ln w="9525" cmpd="sng">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:shade val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+            </xdr:spPr>
+            <xdr:style>
+              <a:lnRef idx="0">
+                <a:scrgbClr r="0" g="0" b="0"/>
+              </a:lnRef>
+              <a:fillRef idx="0">
+                <a:scrgbClr r="0" g="0" b="0"/>
+              </a:fillRef>
+              <a:effectRef idx="0">
+                <a:scrgbClr r="0" g="0" b="0"/>
+              </a:effectRef>
+              <a:fontRef idx="minor">
+                <a:schemeClr val="dk1"/>
+              </a:fontRef>
+            </xdr:style>
+            <xdr:txBody>
+              <a:bodyPr vertOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:endParaRPr lang="en-US" sz="1100"/>
+              </a:p>
+            </xdr:txBody>
+          </xdr:sp>
+          <xdr:sp macro="" textlink="">
+            <xdr:nvSpPr>
+              <xdr:cNvPr id="87" name="TextBox 86"/>
+              <xdr:cNvSpPr txBox="1"/>
+            </xdr:nvSpPr>
+            <xdr:spPr>
+              <a:xfrm>
+                <a:off x="1219200" y="1276350"/>
+                <a:ext cx="2361533" cy="1304925"/>
+              </a:xfrm>
+              <a:prstGeom prst="rect">
+                <a:avLst/>
+              </a:prstGeom>
+              <a:noFill/>
+              <a:ln w="9525" cmpd="sng">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:shade val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+            </xdr:spPr>
+            <xdr:style>
+              <a:lnRef idx="0">
+                <a:scrgbClr r="0" g="0" b="0"/>
+              </a:lnRef>
+              <a:fillRef idx="0">
+                <a:scrgbClr r="0" g="0" b="0"/>
+              </a:fillRef>
+              <a:effectRef idx="0">
+                <a:scrgbClr r="0" g="0" b="0"/>
+              </a:effectRef>
+              <a:fontRef idx="minor">
+                <a:schemeClr val="dk1"/>
+              </a:fontRef>
+            </xdr:style>
+            <xdr:txBody>
+              <a:bodyPr vertOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1100"/>
+                  <a:t>addStation(String)</a:t>
+                </a:r>
+              </a:p>
+              <a:p>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1100"/>
+                  <a:t>addConnection(String, String, String)</a:t>
+                </a:r>
+              </a:p>
+              <a:p>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1100"/>
+                  <a:t>hasStation(String):</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1100" baseline="0"/>
+                  <a:t> boolean</a:t>
+                </a:r>
+              </a:p>
+              <a:p>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1100" baseline="0"/>
+                  <a:t>hasConnection(String, String, String): boolean</a:t>
+                </a:r>
+              </a:p>
+              <a:p>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1100" baseline="0"/>
+                  <a:t>getDirections(String, String): Connection[*]</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US" sz="1100"/>
+              </a:p>
+            </xdr:txBody>
+          </xdr:sp>
+        </xdr:grpSp>
+        <xdr:cxnSp macro="">
+          <xdr:nvCxnSpPr>
+            <xdr:cNvPr id="66" name="Straight Arrow Connector 14"/>
+            <xdr:cNvCxnSpPr>
+              <a:stCxn id="66" idx="2"/>
+            </xdr:cNvCxnSpPr>
+          </xdr:nvCxnSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="2506436" y="2695575"/>
+              <a:ext cx="0" cy="838200"/>
+            </a:xfrm>
+            <a:prstGeom prst="straightConnector1">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln w="25400">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:tailEnd type="arrow"/>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+        </xdr:cxnSp>
+        <xdr:grpSp>
+          <xdr:nvGrpSpPr>
+            <xdr:cNvPr id="67" name="Group 66"/>
+            <xdr:cNvGrpSpPr/>
+          </xdr:nvGrpSpPr>
+          <xdr:grpSpPr>
+            <a:xfrm>
+              <a:off x="257174" y="7124700"/>
+              <a:ext cx="2046515" cy="2257425"/>
+              <a:chOff x="1181099" y="400050"/>
+              <a:chExt cx="2038351" cy="2257425"/>
+            </a:xfrm>
+          </xdr:grpSpPr>
+          <xdr:sp macro="" textlink="">
+            <xdr:nvSpPr>
+              <xdr:cNvPr id="78" name="Rectangle 77"/>
+              <xdr:cNvSpPr/>
+            </xdr:nvSpPr>
+            <xdr:spPr>
+              <a:xfrm>
+                <a:off x="1181099" y="400050"/>
+                <a:ext cx="2038351" cy="2257425"/>
+              </a:xfrm>
+              <a:prstGeom prst="rect">
+                <a:avLst/>
+              </a:prstGeom>
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="20000"/>
+                  <a:lumOff val="80000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="25400">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:ln>
+            </xdr:spPr>
+            <xdr:style>
+              <a:lnRef idx="2">
+                <a:schemeClr val="accent1">
+                  <a:shade val="50000"/>
+                </a:schemeClr>
+              </a:lnRef>
+              <a:fillRef idx="1">
+                <a:schemeClr val="accent1"/>
+              </a:fillRef>
+              <a:effectRef idx="0">
+                <a:schemeClr val="accent1"/>
+              </a:effectRef>
+              <a:fontRef idx="minor">
+                <a:schemeClr val="lt1"/>
+              </a:fontRef>
+            </xdr:style>
+            <xdr:txBody>
+              <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr algn="ctr"/>
+                <a:endParaRPr lang="en-US" sz="1100"/>
+              </a:p>
+            </xdr:txBody>
+          </xdr:sp>
+          <xdr:grpSp>
+            <xdr:nvGrpSpPr>
+              <xdr:cNvPr id="79" name="Group 9"/>
+              <xdr:cNvGrpSpPr/>
+            </xdr:nvGrpSpPr>
+            <xdr:grpSpPr>
+              <a:xfrm>
+                <a:off x="1219200" y="438150"/>
+                <a:ext cx="1962150" cy="2143125"/>
+                <a:chOff x="1219200" y="438150"/>
+                <a:chExt cx="1962150" cy="2143125"/>
+              </a:xfrm>
+            </xdr:grpSpPr>
+            <xdr:sp macro="" textlink="">
+              <xdr:nvSpPr>
+                <xdr:cNvPr id="80" name="TextBox 79"/>
+                <xdr:cNvSpPr txBox="1"/>
+              </xdr:nvSpPr>
+              <xdr:spPr>
+                <a:xfrm>
+                  <a:off x="1219200" y="438150"/>
+                  <a:ext cx="1962150" cy="409575"/>
+                </a:xfrm>
+                <a:prstGeom prst="rect">
+                  <a:avLst/>
+                </a:prstGeom>
+                <a:noFill/>
+                <a:ln w="9525" cmpd="sng">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1">
+                      <a:shade val="50000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                </a:ln>
+              </xdr:spPr>
+              <xdr:style>
+                <a:lnRef idx="0">
+                  <a:scrgbClr r="0" g="0" b="0"/>
+                </a:lnRef>
+                <a:fillRef idx="0">
+                  <a:scrgbClr r="0" g="0" b="0"/>
+                </a:fillRef>
+                <a:effectRef idx="0">
+                  <a:scrgbClr r="0" g="0" b="0"/>
+                </a:effectRef>
+                <a:fontRef idx="minor">
+                  <a:schemeClr val="dk1"/>
+                </a:fontRef>
+              </xdr:style>
+              <xdr:txBody>
+                <a:bodyPr vertOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr algn="ctr"/>
+                  <a:r>
+                    <a:rPr lang="en-US" sz="1100" b="1"/>
+                    <a:t>Station</a:t>
+                  </a:r>
+                </a:p>
+              </xdr:txBody>
+            </xdr:sp>
+            <xdr:sp macro="" textlink="">
+              <xdr:nvSpPr>
+                <xdr:cNvPr id="81" name="TextBox 80"/>
+                <xdr:cNvSpPr txBox="1"/>
+              </xdr:nvSpPr>
+              <xdr:spPr>
+                <a:xfrm>
+                  <a:off x="1219200" y="857250"/>
+                  <a:ext cx="1962150" cy="409575"/>
+                </a:xfrm>
+                <a:prstGeom prst="rect">
+                  <a:avLst/>
+                </a:prstGeom>
+                <a:noFill/>
+                <a:ln w="9525" cmpd="sng">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1">
+                      <a:shade val="50000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                </a:ln>
+              </xdr:spPr>
+              <xdr:style>
+                <a:lnRef idx="0">
+                  <a:scrgbClr r="0" g="0" b="0"/>
+                </a:lnRef>
+                <a:fillRef idx="0">
+                  <a:scrgbClr r="0" g="0" b="0"/>
+                </a:fillRef>
+                <a:effectRef idx="0">
+                  <a:scrgbClr r="0" g="0" b="0"/>
+                </a:effectRef>
+                <a:fontRef idx="minor">
+                  <a:schemeClr val="dk1"/>
+                </a:fontRef>
+              </xdr:style>
+              <xdr:txBody>
+                <a:bodyPr vertOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:r>
+                    <a:rPr lang="en-US" sz="1100"/>
+                    <a:t>name: String</a:t>
+                  </a:r>
+                </a:p>
+              </xdr:txBody>
+            </xdr:sp>
+            <xdr:sp macro="" textlink="">
+              <xdr:nvSpPr>
+                <xdr:cNvPr id="82" name="TextBox 81"/>
+                <xdr:cNvSpPr txBox="1"/>
+              </xdr:nvSpPr>
+              <xdr:spPr>
+                <a:xfrm>
+                  <a:off x="1219200" y="1276350"/>
+                  <a:ext cx="1962150" cy="1304925"/>
+                </a:xfrm>
+                <a:prstGeom prst="rect">
+                  <a:avLst/>
+                </a:prstGeom>
+                <a:noFill/>
+                <a:ln w="9525" cmpd="sng">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1">
+                      <a:shade val="50000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                </a:ln>
+              </xdr:spPr>
+              <xdr:style>
+                <a:lnRef idx="0">
+                  <a:scrgbClr r="0" g="0" b="0"/>
+                </a:lnRef>
+                <a:fillRef idx="0">
+                  <a:scrgbClr r="0" g="0" b="0"/>
+                </a:fillRef>
+                <a:effectRef idx="0">
+                  <a:scrgbClr r="0" g="0" b="0"/>
+                </a:effectRef>
+                <a:fontRef idx="minor">
+                  <a:schemeClr val="dk1"/>
+                </a:fontRef>
+              </xdr:style>
+              <xdr:txBody>
+                <a:bodyPr vertOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:r>
+                    <a:rPr lang="en-US" sz="1100"/>
+                    <a:t>getName(): String</a:t>
+                  </a:r>
+                </a:p>
+                <a:p>
+                  <a:r>
+                    <a:rPr lang="en-US" sz="1100"/>
+                    <a:t>equals(Object):</a:t>
+                  </a:r>
+                  <a:r>
+                    <a:rPr lang="en-US" sz="1100" baseline="0"/>
+                    <a:t> boolean</a:t>
+                  </a:r>
+                </a:p>
+                <a:p>
+                  <a:r>
+                    <a:rPr lang="en-US" sz="1100" baseline="0"/>
+                    <a:t>ID(): int</a:t>
+                  </a:r>
+                  <a:endParaRPr lang="en-US" sz="1100"/>
+                </a:p>
+              </xdr:txBody>
+            </xdr:sp>
+          </xdr:grpSp>
+        </xdr:grpSp>
+        <xdr:cxnSp macro="">
+          <xdr:nvCxnSpPr>
+            <xdr:cNvPr id="68" name="Straight Arrow Connector 67"/>
+            <xdr:cNvCxnSpPr>
+              <a:endCxn id="78" idx="0"/>
+            </xdr:cNvCxnSpPr>
+          </xdr:nvCxnSpPr>
+          <xdr:spPr>
+            <a:xfrm flipH="1">
+              <a:off x="1281793" y="5791200"/>
+              <a:ext cx="1224643" cy="1333500"/>
+            </a:xfrm>
+            <a:prstGeom prst="straightConnector1">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln w="25400">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:tailEnd type="arrow"/>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+        </xdr:cxnSp>
+        <xdr:grpSp>
+          <xdr:nvGrpSpPr>
+            <xdr:cNvPr id="69" name="Group 24"/>
+            <xdr:cNvGrpSpPr/>
+          </xdr:nvGrpSpPr>
+          <xdr:grpSpPr>
+            <a:xfrm>
+              <a:off x="4216853" y="7134225"/>
+              <a:ext cx="2049236" cy="2257425"/>
+              <a:chOff x="1181099" y="400050"/>
+              <a:chExt cx="2038351" cy="2257425"/>
+            </a:xfrm>
+          </xdr:grpSpPr>
+          <xdr:sp macro="" textlink="">
+            <xdr:nvSpPr>
+              <xdr:cNvPr id="73" name="Rectangle 72"/>
+              <xdr:cNvSpPr/>
+            </xdr:nvSpPr>
+            <xdr:spPr>
+              <a:xfrm>
+                <a:off x="1181099" y="400050"/>
+                <a:ext cx="2038351" cy="2257425"/>
+              </a:xfrm>
+              <a:prstGeom prst="rect">
+                <a:avLst/>
+              </a:prstGeom>
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="20000"/>
+                  <a:lumOff val="80000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="25400">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:ln>
+            </xdr:spPr>
+            <xdr:style>
+              <a:lnRef idx="2">
+                <a:schemeClr val="accent1">
+                  <a:shade val="50000"/>
+                </a:schemeClr>
+              </a:lnRef>
+              <a:fillRef idx="1">
+                <a:schemeClr val="accent1"/>
+              </a:fillRef>
+              <a:effectRef idx="0">
+                <a:schemeClr val="accent1"/>
+              </a:effectRef>
+              <a:fontRef idx="minor">
+                <a:schemeClr val="lt1"/>
+              </a:fontRef>
+            </xdr:style>
+            <xdr:txBody>
+              <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr algn="ctr"/>
+                <a:endParaRPr lang="en-US" sz="1100"/>
+              </a:p>
+            </xdr:txBody>
+          </xdr:sp>
+          <xdr:grpSp>
+            <xdr:nvGrpSpPr>
+              <xdr:cNvPr id="74" name="Group 9"/>
+              <xdr:cNvGrpSpPr/>
+            </xdr:nvGrpSpPr>
+            <xdr:grpSpPr>
+              <a:xfrm>
+                <a:off x="1219200" y="438150"/>
+                <a:ext cx="1962150" cy="2143125"/>
+                <a:chOff x="1219200" y="438150"/>
+                <a:chExt cx="1962150" cy="2143125"/>
+              </a:xfrm>
+            </xdr:grpSpPr>
+            <xdr:sp macro="" textlink="">
+              <xdr:nvSpPr>
+                <xdr:cNvPr id="75" name="TextBox 74"/>
+                <xdr:cNvSpPr txBox="1"/>
+              </xdr:nvSpPr>
+              <xdr:spPr>
+                <a:xfrm>
+                  <a:off x="1219200" y="438150"/>
+                  <a:ext cx="1962150" cy="409575"/>
+                </a:xfrm>
+                <a:prstGeom prst="rect">
+                  <a:avLst/>
+                </a:prstGeom>
+                <a:noFill/>
+                <a:ln w="9525" cmpd="sng">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1">
+                      <a:shade val="50000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                </a:ln>
+              </xdr:spPr>
+              <xdr:style>
+                <a:lnRef idx="0">
+                  <a:scrgbClr r="0" g="0" b="0"/>
+                </a:lnRef>
+                <a:fillRef idx="0">
+                  <a:scrgbClr r="0" g="0" b="0"/>
+                </a:fillRef>
+                <a:effectRef idx="0">
+                  <a:scrgbClr r="0" g="0" b="0"/>
+                </a:effectRef>
+                <a:fontRef idx="minor">
+                  <a:schemeClr val="dk1"/>
+                </a:fontRef>
+              </xdr:style>
+              <xdr:txBody>
+                <a:bodyPr vertOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr algn="ctr"/>
+                  <a:r>
+                    <a:rPr lang="en-US" sz="1100" b="1"/>
+                    <a:t>Connection</a:t>
+                  </a:r>
+                </a:p>
+              </xdr:txBody>
+            </xdr:sp>
+            <xdr:sp macro="" textlink="">
+              <xdr:nvSpPr>
+                <xdr:cNvPr id="76" name="TextBox 75"/>
+                <xdr:cNvSpPr txBox="1"/>
+              </xdr:nvSpPr>
+              <xdr:spPr>
+                <a:xfrm>
+                  <a:off x="1219200" y="857250"/>
+                  <a:ext cx="1962150" cy="409575"/>
+                </a:xfrm>
+                <a:prstGeom prst="rect">
+                  <a:avLst/>
+                </a:prstGeom>
+                <a:noFill/>
+                <a:ln w="9525" cmpd="sng">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1">
+                      <a:shade val="50000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                </a:ln>
+              </xdr:spPr>
+              <xdr:style>
+                <a:lnRef idx="0">
+                  <a:scrgbClr r="0" g="0" b="0"/>
+                </a:lnRef>
+                <a:fillRef idx="0">
+                  <a:scrgbClr r="0" g="0" b="0"/>
+                </a:fillRef>
+                <a:effectRef idx="0">
+                  <a:scrgbClr r="0" g="0" b="0"/>
+                </a:effectRef>
+                <a:fontRef idx="minor">
+                  <a:schemeClr val="dk1"/>
+                </a:fontRef>
+              </xdr:style>
+              <xdr:txBody>
+                <a:bodyPr vertOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:r>
+                    <a:rPr lang="en-US" sz="1100"/>
+                    <a:t>lineName: String</a:t>
+                  </a:r>
+                </a:p>
+              </xdr:txBody>
+            </xdr:sp>
+            <xdr:sp macro="" textlink="">
+              <xdr:nvSpPr>
+                <xdr:cNvPr id="77" name="TextBox 76"/>
+                <xdr:cNvSpPr txBox="1"/>
+              </xdr:nvSpPr>
+              <xdr:spPr>
+                <a:xfrm>
+                  <a:off x="1219200" y="1276350"/>
+                  <a:ext cx="1962150" cy="1304925"/>
+                </a:xfrm>
+                <a:prstGeom prst="rect">
+                  <a:avLst/>
+                </a:prstGeom>
+                <a:noFill/>
+                <a:ln w="9525" cmpd="sng">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1">
+                      <a:shade val="50000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                </a:ln>
+              </xdr:spPr>
+              <xdr:style>
+                <a:lnRef idx="0">
+                  <a:scrgbClr r="0" g="0" b="0"/>
+                </a:lnRef>
+                <a:fillRef idx="0">
+                  <a:scrgbClr r="0" g="0" b="0"/>
+                </a:fillRef>
+                <a:effectRef idx="0">
+                  <a:scrgbClr r="0" g="0" b="0"/>
+                </a:effectRef>
+                <a:fontRef idx="minor">
+                  <a:schemeClr val="dk1"/>
+                </a:fontRef>
+              </xdr:style>
+              <xdr:txBody>
+                <a:bodyPr vertOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:r>
+                    <a:rPr lang="en-US" sz="1100"/>
+                    <a:t>getStation1():</a:t>
+                  </a:r>
+                  <a:r>
+                    <a:rPr lang="en-US" sz="1100" baseline="0"/>
+                    <a:t> Station</a:t>
+                  </a:r>
+                </a:p>
+                <a:p>
+                  <a:r>
+                    <a:rPr lang="en-US" sz="1100" baseline="0"/>
+                    <a:t>getStation2(): </a:t>
+                  </a:r>
+                  <a:r>
+                    <a:rPr lang="en-US" sz="1100" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="dk1"/>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:rPr>
+                    <a:t>Station</a:t>
+                  </a:r>
+                  <a:endParaRPr lang="en-US" sz="1100" baseline="0"/>
+                </a:p>
+                <a:p>
+                  <a:r>
+                    <a:rPr lang="en-US" sz="1100" baseline="0"/>
+                    <a:t>getLineName(): String</a:t>
+                  </a:r>
+                  <a:endParaRPr lang="en-US" sz="1100"/>
+                </a:p>
+              </xdr:txBody>
+            </xdr:sp>
+          </xdr:grpSp>
+        </xdr:grpSp>
+        <xdr:cxnSp macro="">
+          <xdr:nvCxnSpPr>
+            <xdr:cNvPr id="70" name="Straight Arrow Connector 69"/>
+            <xdr:cNvCxnSpPr>
+              <a:endCxn id="73" idx="0"/>
+            </xdr:cNvCxnSpPr>
+          </xdr:nvCxnSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="2506436" y="5791200"/>
+              <a:ext cx="2735035" cy="1343025"/>
+            </a:xfrm>
+            <a:prstGeom prst="straightConnector1">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln w="25400">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:tailEnd type="arrow"/>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+        </xdr:cxnSp>
+        <xdr:cxnSp macro="">
+          <xdr:nvCxnSpPr>
+            <xdr:cNvPr id="71" name="Straight Arrow Connector 70"/>
+            <xdr:cNvCxnSpPr>
+              <a:stCxn id="73" idx="1"/>
+              <a:endCxn id="80" idx="3"/>
+            </xdr:cNvCxnSpPr>
+          </xdr:nvCxnSpPr>
+          <xdr:spPr>
+            <a:xfrm flipH="1" flipV="1">
+              <a:off x="2265589" y="7367588"/>
+              <a:ext cx="1951264" cy="895350"/>
+            </a:xfrm>
+            <a:prstGeom prst="straightConnector1">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln w="25400">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:tailEnd type="arrow"/>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+        </xdr:cxnSp>
+        <xdr:cxnSp macro="">
+          <xdr:nvCxnSpPr>
+            <xdr:cNvPr id="72" name="Straight Arrow Connector 71"/>
+            <xdr:cNvCxnSpPr>
+              <a:stCxn id="73" idx="1"/>
+              <a:endCxn id="82" idx="3"/>
+            </xdr:cNvCxnSpPr>
+          </xdr:nvCxnSpPr>
+          <xdr:spPr>
+            <a:xfrm flipH="1">
+              <a:off x="2265589" y="8262938"/>
+              <a:ext cx="1951264" cy="390525"/>
+            </a:xfrm>
+            <a:prstGeom prst="straightConnector1">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln w="25400">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:tailEnd type="arrow"/>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+        </xdr:cxnSp>
+      </xdr:grpSp>
+      <xdr:grpSp>
+        <xdr:nvGrpSpPr>
+          <xdr:cNvPr id="55" name="Group 49"/>
+          <xdr:cNvGrpSpPr/>
+        </xdr:nvGrpSpPr>
+        <xdr:grpSpPr>
+          <a:xfrm>
+            <a:off x="840921" y="6429375"/>
+            <a:ext cx="4552950" cy="2428875"/>
+            <a:chOff x="840921" y="6429375"/>
+            <a:chExt cx="4552950" cy="2428875"/>
+          </a:xfrm>
+        </xdr:grpSpPr>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="56" name="TextBox 55"/>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="1894114" y="6534150"/>
+              <a:ext cx="390525" cy="400050"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="9525" cmpd="sng">
+              <a:noFill/>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="dk1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-US" sz="3600" b="1"/>
+                <a:t>*</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="57" name="TextBox 56"/>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="840921" y="6429375"/>
+              <a:ext cx="783772" cy="285750"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="9525" cmpd="sng">
+              <a:noFill/>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="dk1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-US" sz="1400" b="1"/>
+                <a:t>stations</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="58" name="TextBox 57"/>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="5003346" y="6534150"/>
+              <a:ext cx="390525" cy="400050"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="9525" cmpd="sng">
+              <a:noFill/>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="dk1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-US" sz="3600" b="1"/>
+                <a:t>*</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="59" name="TextBox 58"/>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="3328307" y="6762750"/>
+              <a:ext cx="1148443" cy="285750"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="9525" cmpd="sng">
+              <a:noFill/>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="dk1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-US" sz="1400" b="1"/>
+                <a:t>connections</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="60" name="TextBox 59"/>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="2389414" y="7143750"/>
+              <a:ext cx="393247" cy="400050"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="9525" cmpd="sng">
+              <a:noFill/>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="dk1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-US" sz="1600" b="1"/>
+                <a:t>1</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="61" name="TextBox 60"/>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="2398939" y="8277225"/>
+              <a:ext cx="393247" cy="400050"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="9525" cmpd="sng">
+              <a:noFill/>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="dk1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-US" sz="1600" b="1"/>
+                <a:t>1</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="62" name="TextBox 61"/>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="2811236" y="7343775"/>
+              <a:ext cx="919843" cy="285750"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="9525" cmpd="sng">
+              <a:noFill/>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="dk1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-US" sz="1400" b="1"/>
+                <a:t>station1</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="63" name="TextBox 62"/>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="2811236" y="8572500"/>
+              <a:ext cx="919843" cy="285750"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="9525" cmpd="sng">
+              <a:noFill/>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="dk1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-US" sz="1400" b="1"/>
+                <a:t>station2</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </xdr:grpSp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -4149,8 +5918,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AG20" sqref="AG20"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A49" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="T90" sqref="T90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
